--- a/com.sevenmartsupermarket/src/main/resources/ExcelFiles/InvalidCredentials.xlsx
+++ b/com.sevenmartsupermarket/src/main/resources/ExcelFiles/InvalidCredentials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERIN\eclipse-workspace\com.sevenmartsupermarket\src\main\resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepo\com.sevenmartsupermarket\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1A415D7-CF35-4F29-B232-6C58DDED13DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D6653E-79E5-4298-8ACC-59A95FA6D9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B29EBA2D-D59D-4FB6-80EF-C04B624CCB59}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{B29EBA2D-D59D-4FB6-80EF-C04B624CCB59}"/>
   </bookViews>
   <sheets>
     <sheet name="invalidLoginCredentials" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
